--- a/biology/Médecine/Mohamed_Gueddiche/Mohamed_Gueddiche.xlsx
+++ b/biology/Médecine/Mohamed_Gueddiche/Mohamed_Gueddiche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mohamed Gueddiche (arabe : محمد قديش), né le 25 juillet 1942 à Hammamet et mort le 21 août 2020, est un universitaire et médecin tunisien.
-Il a été ministre-conseiller auprès du président Zine el-Abidine Ben Ali pour la santé et l'environnement[1].
+Il a été ministre-conseiller auprès du président Zine el-Abidine Ben Ali pour la santé et l'environnement.
 </t>
         </is>
       </c>
@@ -512,14 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mohamed Gueddiche suit ses études primaires à Hammamet avant de partir pour Tunis afin de poursuivre ses études secondaires au lycée Alaoui. Il étudie ensuite la médecine à l'université de Lyon avant de rentrer en Tunisie où il démarre le premier service de cardiologie à l'hôpital militaire de Tunis[2].
-Médecin militaire de carrière, professeur émérite en cardiologie à la faculté de médecine de Tunis, il est chef du service de cardiologie à l'hôpital militaire de Tunis puis occupe le poste de directeur de cet hôpital[3]. Directeur et membre-fondateur de la Revue tunisienne de la santé militaire, il est également président du Comité national olympique tunisien de 2002 à 2004 et membre fondateur de la Société tunisienne des sciences médicales[4],[5]. 
-Médecin du président Habib Bourguiba, il est ensuite le médecin particulier de son successeur, le président Zine el-Abidine Ben Ali, jusqu'à la chute de ce dernier[6]. Général de division dans l'armée tunisienne (médecine militaire)[1], il a développé la cardiologie dans les hôpitaux tunisiens en lançant des projets de coopération bilatérale avec des pays arabes, africains et européens[7],[8].
-Il meurt le 21 août 2020[9],[10].
-Vie privée
-Mohamed Gueddiche est marié et père de quatre enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Gueddiche suit ses études primaires à Hammamet avant de partir pour Tunis afin de poursuivre ses études secondaires au lycée Alaoui. Il étudie ensuite la médecine à l'université de Lyon avant de rentrer en Tunisie où il démarre le premier service de cardiologie à l'hôpital militaire de Tunis.
+Médecin militaire de carrière, professeur émérite en cardiologie à la faculté de médecine de Tunis, il est chef du service de cardiologie à l'hôpital militaire de Tunis puis occupe le poste de directeur de cet hôpital. Directeur et membre-fondateur de la Revue tunisienne de la santé militaire, il est également président du Comité national olympique tunisien de 2002 à 2004 et membre fondateur de la Société tunisienne des sciences médicales,. 
+Médecin du président Habib Bourguiba, il est ensuite le médecin particulier de son successeur, le président Zine el-Abidine Ben Ali, jusqu'à la chute de ce dernier. Général de division dans l'armée tunisienne (médecine militaire), il a développé la cardiologie dans les hôpitaux tunisiens en lançant des projets de coopération bilatérale avec des pays arabes, africains et européens,.
+Il meurt le 21 août 2020,.
 </t>
         </is>
       </c>
@@ -545,22 +557,98 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Gueddiche est marié et père de quatre enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mohamed_Gueddiche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mohamed_Gueddiche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Décorations nationales
- Grand-officier de l'ordre de la République tunisienne (Tunisie)[11] ;
- Grand-cordon de l'ordre national du Mérite (Tunisie)[11] ;
- Grand-cordon de l'ordre du 7-Novembre (Tunisie)[11].
-Décorations étrangères
- Commandeur de la Légion d'honneur (France)[11] ;
- Commandeur de l'ordre des Palmes académiques (France)[11] ;
- Commandeur de l'ordre du Mérite de la République italienne (Italie)[11] ;
- Commandeur de l'ordre du Ouissam alaouite (Maroc)[11] ;
- Grand-officier de l'ordre de l'Infant Dom Henri (Portugal)[12] ;
- Commandeur de l'ordre de l'Étoile de Roumanie (Roumanie)[11].</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations nationales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-officier de l'ordre de la République tunisienne (Tunisie) ;
+ Grand-cordon de l'ordre national du Mérite (Tunisie) ;
+ Grand-cordon de l'ordre du 7-Novembre (Tunisie).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mohamed_Gueddiche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mohamed_Gueddiche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décorations étrangères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (France) ;
+ Commandeur de l'ordre des Palmes académiques (France) ;
+ Commandeur de l'ordre du Mérite de la République italienne (Italie) ;
+ Commandeur de l'ordre du Ouissam alaouite (Maroc) ;
+ Grand-officier de l'ordre de l'Infant Dom Henri (Portugal) ;
+ Commandeur de l'ordre de l'Étoile de Roumanie (Roumanie).</t>
         </is>
       </c>
     </row>
